--- a/data/trans_dic/P18_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 20,87</t>
+          <t>6,15; 28,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,43</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,31</t>
+          <t>1,89; 8,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,38</t>
+          <t>2,2; 9,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 14,89</t>
+          <t>1,32; 6,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,67</t>
+          <t>6,84; 15,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,22</t>
+          <t>2,86; 9,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,57</t>
+          <t>4,05; 11,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,84</t>
+          <t>1,78; 7,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,39</t>
+          <t>2,77; 11,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,98</t>
+          <t>7,68; 19,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,27</t>
+          <t>1,89; 6,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 9,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 7,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 7,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>3,56%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,42</t>
+          <t>3,08; 11,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,99</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,19</t>
+          <t>0,84; 8,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,99</t>
+          <t>1,8; 9,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,57</t>
+          <t>0,83; 7,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,91</t>
+          <t>5,28; 13,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,06</t>
+          <t>1,26; 7,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 12,56</t>
+          <t>2,15; 8,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,27</t>
+          <t>0,99; 5,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,34</t>
+          <t>0,46; 4,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,82</t>
+          <t>5,28; 11,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,27</t>
+          <t>1,17; 4,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 6,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 6,28</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 17,21</t>
+          <t>1,9; 26,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 26,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 23,15</t>
+          <t>4,12; 28,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,27</t>
+          <t>0,0; 14,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 20,69</t>
+          <t>0,0; 26,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0,0; 16,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 15,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,7</t>
+          <t>2,48; 22,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,49</t>
+          <t>0,0; 18,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,52</t>
+          <t>2,77; 16,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,43</t>
+          <t>0,0; 11,41</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 21,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 10,83</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,66</t>
+          <t>6,01; 16,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,09</t>
+          <t>0,86; 3,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,5</t>
+          <t>2,84; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,37</t>
+          <t>2,29; 7,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,71</t>
+          <t>1,7; 6,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,28</t>
+          <t>6,59; 12,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,98</t>
+          <t>2,62; 6,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,69</t>
+          <t>4,32; 8,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,89</t>
+          <t>2,03; 5,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,61</t>
+          <t>1,91; 6,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,46</t>
+          <t>7,05; 13,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,49</t>
+          <t>2,0; 4,69</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 5,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44034</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19101</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17052</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44472</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27963</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30878</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15951</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88506</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34415</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>47095</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35053</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>49484</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22487; 103947</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1956; 18201</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6796; 30549</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8360; 37718</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6796; 35765</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29301; 67928</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14351; 48672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17033; 47133</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7227; 30466</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15601; 65045</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60965; 154539</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17568; 56174</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31932; 71562</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20909; 57248</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>28332; 81606</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9956</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14426</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11109</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30830</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14856</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15253</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8873</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50216</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19573</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25209</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23299</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18889</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9268; 33340</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14358</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2578; 24676</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5760; 29455</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3415; 29122</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18274; 47841</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5379; 30344</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7225; 29197</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3289; 19053</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1946; 19134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34124; 72981</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9183; 34294</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12939; 41313</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13303; 41064</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7668; 36283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7982</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10645</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11850</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17572</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6645</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1608; 22747</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25891</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3277; 22913</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11876</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 32119</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13248</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2025; 18262</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14956</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4630; 27590</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22661</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7750; 33841</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1817; 17649</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 31741</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>71402</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17255</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36818</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>35729</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35050</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79170</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42819</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53057</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29268</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40212</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>150572</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60074</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>89875</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>64996</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>75262</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45144; 124605</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7604; 35193</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21203; 57992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17931; 55729</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17759; 64478</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56511; 107764</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26894; 66735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36256; 75293</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16620; 45692</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21104; 75533</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>113442; 213436</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38245; 89858</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>64081; 116682</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>44358; 94674</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>46961; 118666</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
